--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6846183333333333</v>
+        <v>0.01751633333333333</v>
       </c>
       <c r="H2">
-        <v>2.053855</v>
+        <v>0.052549</v>
       </c>
       <c r="I2">
-        <v>0.7462905397180684</v>
+        <v>0.09281717406509865</v>
       </c>
       <c r="J2">
-        <v>0.7462905397180682</v>
+        <v>0.09281717406509865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>11.75252115771667</v>
+        <v>0.03550762788377777</v>
       </c>
       <c r="R2">
-        <v>105.77269041945</v>
+        <v>0.319568650954</v>
       </c>
       <c r="S2">
-        <v>0.04181804688513988</v>
+        <v>0.0006122484926913833</v>
       </c>
       <c r="T2">
-        <v>0.04181804688513988</v>
+        <v>0.0006122484926913832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6846183333333333</v>
+        <v>0.01751633333333333</v>
       </c>
       <c r="H3">
-        <v>2.053855</v>
+        <v>0.052549</v>
       </c>
       <c r="I3">
-        <v>0.7462905397180684</v>
+        <v>0.09281717406509865</v>
       </c>
       <c r="J3">
-        <v>0.7462905397180682</v>
+        <v>0.09281717406509865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>175.5664729101311</v>
+        <v>4.491963933653777</v>
       </c>
       <c r="R3">
-        <v>1580.09825619118</v>
+        <v>40.427675402884</v>
       </c>
       <c r="S3">
-        <v>0.6247040015574759</v>
+        <v>0.07745372787518857</v>
       </c>
       <c r="T3">
-        <v>0.6247040015574757</v>
+        <v>0.07745372787518856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6846183333333333</v>
+        <v>0.01751633333333333</v>
       </c>
       <c r="H4">
-        <v>2.053855</v>
+        <v>0.052549</v>
       </c>
       <c r="I4">
-        <v>0.7462905397180684</v>
+        <v>0.09281717406509865</v>
       </c>
       <c r="J4">
-        <v>0.7462905397180682</v>
+        <v>0.09281717406509865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>22.41809341332555</v>
+        <v>0.855502373505889</v>
       </c>
       <c r="R4">
-        <v>201.76284071993</v>
+        <v>7.699521361553001</v>
       </c>
       <c r="S4">
-        <v>0.07976849127545255</v>
+        <v>0.0147511976972187</v>
       </c>
       <c r="T4">
-        <v>0.07976849127545253</v>
+        <v>0.0147511976972187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.265099</v>
       </c>
       <c r="I5">
-        <v>0.09632660328441892</v>
+        <v>0.4682437349423128</v>
       </c>
       <c r="J5">
-        <v>0.09632660328441892</v>
+        <v>0.4682437349423127</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>1.516943312156667</v>
+        <v>0.1791287492504444</v>
       </c>
       <c r="R5">
-        <v>13.65248980941</v>
+        <v>1.612158743254</v>
       </c>
       <c r="S5">
-        <v>0.005397616877142592</v>
+        <v>0.003088668921653943</v>
       </c>
       <c r="T5">
-        <v>0.005397616877142592</v>
+        <v>0.003088668921653942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.265099</v>
       </c>
       <c r="I6">
-        <v>0.09632660328441892</v>
+        <v>0.4682437349423128</v>
       </c>
       <c r="J6">
-        <v>0.09632660328441892</v>
+        <v>0.4682437349423127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>22.66104296652044</v>
@@ -818,10 +818,10 @@
         <v>203.949386698684</v>
       </c>
       <c r="S6">
-        <v>0.08063295904963365</v>
+        <v>0.3907382786729456</v>
       </c>
       <c r="T6">
-        <v>0.08063295904963365</v>
+        <v>0.3907382786729455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.265099</v>
       </c>
       <c r="I7">
-        <v>0.09632660328441892</v>
+        <v>0.4682437349423128</v>
       </c>
       <c r="J7">
-        <v>0.09632660328441892</v>
+        <v>0.4682437349423127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>2.893589930048222</v>
+        <v>4.315835195989223</v>
       </c>
       <c r="R7">
-        <v>26.042309370434</v>
+        <v>38.84251676390301</v>
       </c>
       <c r="S7">
-        <v>0.01029602735764267</v>
+        <v>0.07441678734771322</v>
       </c>
       <c r="T7">
-        <v>0.01029602735764267</v>
+        <v>0.07441678734771319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.144377</v>
+        <v>0.08283600000000001</v>
       </c>
       <c r="H8">
-        <v>0.433131</v>
+        <v>0.248508</v>
       </c>
       <c r="I8">
-        <v>0.1573828569975128</v>
+        <v>0.4389390909925887</v>
       </c>
       <c r="J8">
-        <v>0.1573828569975128</v>
+        <v>0.4389390909925885</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>2.478452101810001</v>
+        <v>0.167918125752</v>
       </c>
       <c r="R8">
-        <v>22.30606891629001</v>
+        <v>1.511263131768</v>
       </c>
       <c r="S8">
-        <v>0.008818875950545448</v>
+        <v>0.00289536715107329</v>
       </c>
       <c r="T8">
-        <v>0.008818875950545448</v>
+        <v>0.002895367151073289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.144377</v>
+        <v>0.08283600000000001</v>
       </c>
       <c r="H9">
-        <v>0.433131</v>
+        <v>0.248508</v>
       </c>
       <c r="I9">
-        <v>0.1573828569975128</v>
+        <v>0.4389390909925887</v>
       </c>
       <c r="J9">
-        <v>0.1573828569975128</v>
+        <v>0.4389390909925885</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>37.02465947111067</v>
+        <v>21.242820476592</v>
       </c>
       <c r="R9">
-        <v>333.221935239996</v>
+        <v>191.185384289328</v>
       </c>
       <c r="S9">
-        <v>0.131741855631771</v>
+        <v>0.3662842491162033</v>
       </c>
       <c r="T9">
-        <v>0.131741855631771</v>
+        <v>0.3662842491162032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.144377</v>
+        <v>0.08283600000000001</v>
       </c>
       <c r="H10">
-        <v>0.433131</v>
+        <v>0.248508</v>
       </c>
       <c r="I10">
-        <v>0.1573828569975128</v>
+        <v>0.4389390909925887</v>
       </c>
       <c r="J10">
-        <v>0.1573828569975128</v>
+        <v>0.4389390909925885</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>4.727680979527333</v>
+        <v>4.045732246764001</v>
       </c>
       <c r="R10">
-        <v>42.549128815746</v>
+        <v>36.41159022087601</v>
       </c>
       <c r="S10">
-        <v>0.01682212541519632</v>
+        <v>0.06975947472531212</v>
       </c>
       <c r="T10">
-        <v>0.01682212541519632</v>
+        <v>0.06975947472531208</v>
       </c>
     </row>
   </sheetData>
